--- a/docs/ikarusfix.xlsx
+++ b/docs/ikarusfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ikarus-Set-Fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Ikarus-Set-Fix\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB680F-D99B-4E95-A1AA-5F2DE4ABEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81920C89-8ED4-4E05-8D2D-A3C2F030434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="5640" windowWidth="19343" windowHeight="5723" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="5640" windowWidth="19201" windowHeight="5723" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -404,6 +404,22 @@
   </si>
   <si>
     <t>ikarus_eag_e94g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+8+4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+8+6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +599,8 @@
   <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -685,6 +702,9 @@
       <c r="F2" s="1">
         <v>190</v>
       </c>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
       <c r="H2" s="1">
         <v>9</v>
       </c>
@@ -743,6 +763,9 @@
       <c r="F3" s="1">
         <v>220</v>
       </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
       <c r="H3" s="1">
         <v>9</v>
       </c>
@@ -801,6 +824,9 @@
       <c r="F4" s="1">
         <v>260</v>
       </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
       <c r="H4" s="1">
         <v>9</v>
       </c>
@@ -859,6 +885,9 @@
       <c r="F5" s="1">
         <v>260</v>
       </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
       <c r="H5" s="1">
         <v>9</v>
       </c>
@@ -917,6 +946,9 @@
       <c r="F6" s="1">
         <v>190</v>
       </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
       <c r="H6" s="1">
         <v>9</v>
       </c>
@@ -975,6 +1007,9 @@
       <c r="F7" s="1">
         <v>220</v>
       </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
       <c r="H7" s="1">
         <v>9</v>
       </c>
@@ -1033,6 +1068,9 @@
       <c r="F8" s="1">
         <v>190</v>
       </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
       <c r="H8" s="1">
         <v>10</v>
       </c>
@@ -1091,6 +1129,9 @@
       <c r="F9" s="1">
         <v>220</v>
       </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
@@ -1149,6 +1190,9 @@
       <c r="F10" s="1">
         <v>250</v>
       </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
@@ -1207,6 +1251,9 @@
       <c r="F11" s="1">
         <v>190</v>
       </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
       <c r="H11" s="1">
         <v>10</v>
       </c>
@@ -1265,6 +1312,9 @@
       <c r="F12" s="1">
         <v>280</v>
       </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
       <c r="H12" s="1">
         <v>13</v>
       </c>
@@ -1323,6 +1373,9 @@
       <c r="F13" s="1">
         <v>250</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="1">
         <v>13</v>
       </c>
@@ -1381,6 +1434,9 @@
       <c r="F14" s="1">
         <v>210</v>
       </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
       <c r="H14" s="1">
         <v>11</v>
       </c>
@@ -1439,6 +1495,9 @@
       <c r="F15" s="1">
         <v>220</v>
       </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
       <c r="H15" s="1">
         <v>11</v>
       </c>
@@ -1497,6 +1556,9 @@
       <c r="F16" s="1">
         <v>190</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H16" s="1">
         <v>12</v>
       </c>
@@ -1555,6 +1617,9 @@
       <c r="F17" s="1">
         <v>220</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H17" s="1">
         <v>12</v>
       </c>
@@ -1613,6 +1678,9 @@
       <c r="F18" s="1">
         <v>260</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H18" s="1">
         <v>12</v>
       </c>
@@ -1671,6 +1739,9 @@
       <c r="F19" s="1">
         <v>260</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H19" s="1">
         <v>12</v>
       </c>
@@ -1729,6 +1800,9 @@
       <c r="F20" s="1">
         <v>140</v>
       </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
       <c r="H20" s="1">
         <v>6</v>
       </c>
@@ -1787,6 +1861,9 @@
       <c r="F21" s="1">
         <v>120</v>
       </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
       <c r="H21" s="1">
         <v>7</v>
       </c>
@@ -1845,6 +1922,9 @@
       <c r="F22" s="1">
         <v>160</v>
       </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
       <c r="H22" s="1">
         <v>7</v>
       </c>
@@ -1903,6 +1983,9 @@
       <c r="F23" s="1">
         <v>190</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H23" s="1">
         <v>12</v>
       </c>
@@ -1961,6 +2044,9 @@
       <c r="F24" s="1">
         <v>220</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H24" s="1">
         <v>12</v>
       </c>
@@ -2019,6 +2105,9 @@
       <c r="F25" s="1">
         <v>250</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="H25" s="1">
         <v>18</v>
       </c>
@@ -2077,6 +2166,9 @@
       <c r="F26" s="1">
         <v>100</v>
       </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
       <c r="H26" s="1">
         <v>8</v>
       </c>
@@ -2135,6 +2227,9 @@
       <c r="F27" s="1">
         <v>60</v>
       </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
       <c r="H27" s="1">
         <v>5</v>
       </c>
@@ -2193,6 +2288,9 @@
       <c r="F28" s="1">
         <v>80</v>
       </c>
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
       <c r="H28" s="1">
         <v>6</v>
       </c>
@@ -2251,6 +2349,9 @@
       <c r="F29" s="1">
         <v>190</v>
       </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
       <c r="H29" s="1">
         <v>8</v>
       </c>
@@ -2309,6 +2410,9 @@
       <c r="F30" s="1">
         <v>190</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H30" s="1">
         <v>12</v>
       </c>
@@ -2367,6 +2471,9 @@
       <c r="F31" s="1">
         <v>140</v>
       </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
       <c r="H31" s="1">
         <v>12</v>
       </c>
@@ -2425,6 +2532,9 @@
       <c r="F32" s="1">
         <v>190</v>
       </c>
+      <c r="G32" s="1">
+        <v>8</v>
+      </c>
       <c r="H32" s="1">
         <v>9</v>
       </c>
@@ -2483,6 +2593,9 @@
       <c r="F33" s="1">
         <v>120</v>
       </c>
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
       <c r="H33" s="1">
         <v>8</v>
       </c>
@@ -2541,6 +2654,9 @@
       <c r="F34" s="1">
         <v>120</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H34" s="1">
         <v>12</v>
       </c>
@@ -2599,6 +2715,9 @@
       <c r="F35" s="1">
         <v>120</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H35" s="1">
         <v>11</v>
       </c>
@@ -2657,6 +2776,9 @@
       <c r="F36" s="1">
         <v>120</v>
       </c>
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
       <c r="H36" s="1">
         <v>8</v>
       </c>
@@ -2715,6 +2837,9 @@
       <c r="F37" s="1">
         <v>120</v>
       </c>
+      <c r="G37" s="1">
+        <v>8</v>
+      </c>
       <c r="H37" s="1">
         <v>8</v>
       </c>
@@ -2773,6 +2898,9 @@
       <c r="F38" s="1">
         <v>120</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H38" s="1">
         <v>11</v>
       </c>
@@ -2831,6 +2959,9 @@
       <c r="F39" s="1">
         <v>80</v>
       </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
       <c r="H39" s="1">
         <v>6</v>
       </c>
@@ -2889,6 +3020,9 @@
       <c r="F40" s="1">
         <v>140</v>
       </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
       <c r="H40" s="1">
         <v>8</v>
       </c>
@@ -2947,6 +3081,9 @@
       <c r="F41" s="1">
         <v>140</v>
       </c>
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
       <c r="H41" s="1">
         <v>8</v>
       </c>
@@ -3005,6 +3142,9 @@
       <c r="F42" s="1">
         <v>140</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H42" s="1">
         <v>12</v>
       </c>
@@ -3063,6 +3203,9 @@
       <c r="F43" s="1">
         <v>140</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H43" s="1">
         <v>11</v>
       </c>
@@ -3121,6 +3264,9 @@
       <c r="F44" s="1">
         <v>150</v>
       </c>
+      <c r="G44" s="1">
+        <v>8</v>
+      </c>
       <c r="H44" s="1">
         <v>10</v>
       </c>
@@ -3179,6 +3325,9 @@
       <c r="F45" s="1">
         <v>150</v>
       </c>
+      <c r="G45" s="1">
+        <v>8</v>
+      </c>
       <c r="H45" s="1">
         <v>10</v>
       </c>
@@ -3237,6 +3386,9 @@
       <c r="F46" s="1">
         <v>120</v>
       </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
       <c r="H46" s="1">
         <v>9</v>
       </c>
@@ -3295,6 +3447,9 @@
       <c r="F47" s="1">
         <v>140</v>
       </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
       <c r="H47" s="1">
         <v>6</v>
       </c>
@@ -3353,6 +3508,9 @@
       <c r="F48" s="1">
         <v>220</v>
       </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
       <c r="H48" s="1">
         <v>10</v>
       </c>
@@ -3411,6 +3569,9 @@
       <c r="F49" s="1">
         <v>240</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H49" s="1">
         <v>13</v>
       </c>
@@ -3469,6 +3630,9 @@
       <c r="F50" s="1">
         <v>220</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H50" s="1">
         <v>13</v>
       </c>
@@ -3527,6 +3691,9 @@
       <c r="F51" s="1">
         <v>140</v>
       </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
       <c r="H51" s="1">
         <v>5</v>
       </c>
@@ -3585,6 +3752,9 @@
       <c r="F52" s="1">
         <v>240</v>
       </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
       <c r="H52" s="1">
         <v>10</v>
       </c>
@@ -3643,6 +3813,9 @@
       <c r="F53" s="1">
         <v>280</v>
       </c>
+      <c r="G53" s="1">
+        <v>8</v>
+      </c>
       <c r="H53" s="1">
         <v>10</v>
       </c>
@@ -3701,6 +3874,9 @@
       <c r="F54" s="1">
         <v>220</v>
       </c>
+      <c r="G54" s="1">
+        <v>8</v>
+      </c>
       <c r="H54" s="1">
         <v>10</v>
       </c>
@@ -3759,6 +3935,9 @@
       <c r="F55" s="1">
         <v>250</v>
       </c>
+      <c r="G55" s="1">
+        <v>8</v>
+      </c>
       <c r="H55" s="1">
         <v>10</v>
       </c>
@@ -3817,6 +3996,9 @@
       <c r="F56" s="1">
         <v>220</v>
       </c>
+      <c r="G56" s="1">
+        <v>8</v>
+      </c>
       <c r="H56" s="1">
         <v>11</v>
       </c>
@@ -3875,6 +4057,9 @@
       <c r="F57" s="1">
         <v>320</v>
       </c>
+      <c r="G57" s="1">
+        <v>8</v>
+      </c>
       <c r="H57" s="1">
         <v>10</v>
       </c>
@@ -3933,6 +4118,9 @@
       <c r="F58" s="1">
         <v>280</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H58" s="1">
         <v>15</v>
       </c>
@@ -3991,6 +4179,9 @@
       <c r="F59" s="1">
         <v>240</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H59" s="1">
         <v>15</v>
       </c>
@@ -4049,6 +4240,9 @@
       <c r="F60" s="1">
         <v>270</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H60" s="1">
         <v>15</v>
       </c>
@@ -4107,6 +4301,9 @@
       <c r="F61" s="1">
         <v>320</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H61" s="1">
         <v>15</v>
       </c>
@@ -4165,6 +4362,9 @@
       <c r="F62" s="1">
         <v>300</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H62" s="1">
         <v>15</v>
       </c>
@@ -4223,6 +4423,9 @@
       <c r="F63" s="1">
         <v>300</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H63" s="1">
         <v>15</v>
       </c>
@@ -4281,6 +4484,9 @@
       <c r="F64" s="1">
         <v>600</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H64" s="1">
         <v>20</v>
       </c>
@@ -4339,6 +4545,9 @@
       <c r="F65" s="1">
         <v>190</v>
       </c>
+      <c r="G65" s="1">
+        <v>6</v>
+      </c>
       <c r="H65" s="1">
         <v>9</v>
       </c>
@@ -4397,6 +4606,9 @@
       <c r="F66" s="1">
         <v>290</v>
       </c>
+      <c r="G66" s="1">
+        <v>8</v>
+      </c>
       <c r="H66" s="1">
         <v>11</v>
       </c>
@@ -4455,6 +4667,9 @@
       <c r="F67" s="1">
         <v>300</v>
       </c>
+      <c r="G67" s="1">
+        <v>8</v>
+      </c>
       <c r="H67" s="1">
         <v>13</v>
       </c>
@@ -4513,6 +4728,9 @@
       <c r="F68" s="1">
         <v>370</v>
       </c>
+      <c r="G68" s="1">
+        <v>8</v>
+      </c>
       <c r="H68" s="1">
         <v>13</v>
       </c>
@@ -4571,6 +4789,9 @@
       <c r="F69" s="1">
         <v>280</v>
       </c>
+      <c r="G69" s="1">
+        <v>8</v>
+      </c>
       <c r="H69" s="1">
         <v>11</v>
       </c>
@@ -4629,6 +4850,9 @@
       <c r="F70" s="1">
         <v>370</v>
       </c>
+      <c r="G70" s="1">
+        <v>8</v>
+      </c>
       <c r="H70" s="1">
         <v>13</v>
       </c>
@@ -4687,6 +4911,9 @@
       <c r="F71" s="1">
         <v>370</v>
       </c>
+      <c r="G71" s="1">
+        <v>8</v>
+      </c>
       <c r="H71" s="1">
         <v>17</v>
       </c>
@@ -4745,6 +4972,9 @@
       <c r="F72" s="1">
         <v>430</v>
       </c>
+      <c r="G72" s="1">
+        <v>8</v>
+      </c>
       <c r="H72" s="1">
         <v>17</v>
       </c>
@@ -4803,6 +5033,9 @@
       <c r="F73" s="1">
         <v>160</v>
       </c>
+      <c r="G73" s="1">
+        <v>8</v>
+      </c>
       <c r="H73" s="1">
         <v>8</v>
       </c>
@@ -4861,6 +5094,9 @@
       <c r="F74" s="1">
         <v>160</v>
       </c>
+      <c r="G74" s="1">
+        <v>8</v>
+      </c>
       <c r="H74" s="1">
         <v>7</v>
       </c>
@@ -4919,6 +5155,9 @@
       <c r="F75" s="1">
         <v>180</v>
       </c>
+      <c r="G75" s="1">
+        <v>8</v>
+      </c>
       <c r="H75" s="1">
         <v>8</v>
       </c>
@@ -4977,6 +5216,9 @@
       <c r="F76" s="1">
         <v>320</v>
       </c>
+      <c r="G76" s="1">
+        <v>8</v>
+      </c>
       <c r="H76" s="1">
         <v>12</v>
       </c>
@@ -5035,6 +5277,9 @@
       <c r="F77" s="1">
         <v>320</v>
       </c>
+      <c r="G77" s="1">
+        <v>8</v>
+      </c>
       <c r="H77" s="1">
         <v>12</v>
       </c>
@@ -5093,6 +5338,9 @@
       <c r="F78" s="1">
         <v>320</v>
       </c>
+      <c r="G78" s="1">
+        <v>8</v>
+      </c>
       <c r="H78" s="1">
         <v>14</v>
       </c>
@@ -5150,6 +5398,9 @@
       </c>
       <c r="F79" s="1">
         <v>300</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H79" s="1">
         <v>18</v>
